--- a/v3/trees.xlsx
+++ b/v3/trees.xlsx
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -13812,7 +13812,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B656" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -16725,8 +16725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C657"/>
   <sheetViews>
-    <sheetView topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -24597,8 +24597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J928"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
